--- a/medicine/Mort/Separation_(film,_2021)/Separation_(film,_2021).xlsx
+++ b/medicine/Mort/Separation_(film,_2021)/Separation_(film,_2021).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Separation est un film d'horreur américain réalisé par William Brent Bell, sorti en 2021.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Illustrateur de bandes dessinées au chômage, Jeffrey est dévasté par la décision de sa femme avocate, Maggie, de mettre fin à leur mariage. Prête à tout pour divorcer, soutenue par son père fortuné, elle exige également la garde de leur petite fille solitaire et fantasque, Jenny, férue de marionnettes. Du jour au lendemain, Maggie perd la vie en se faisant renverser par une voiture. Endeuillé, Jeffrey doit confronter son beau-père méprisant qui s'acharne à vouloir lui retirer Jenny pour qu'elle vive sous son toit.
 Cependant, dans leur maison, Jeffrey remarque que Jenny semble être victime de sa propre imagination fertile d'autant plus qu'elle lui proclame qu'elle voit des êtres invisibles, dont une silhouette masquée, qu'elle seule peut voir. Mais Jeffrey se retrouve frustré lorsqu’il comprend que sa fille n’est pas la seule à voir des choses surnaturelles, et se contraint à penser que sa femme revient sous une autre forme démoniaque…
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Separation
@@ -565,8 +581,8 @@
 Durée : 107 minutes
 Dates de sortie :
 États-Unis : 30 avril 2021
-Québec : 13 juillet 2021[1] (DVD et Blu-ray)
-France : 1er décembre 2021[2] (DVD et Blu-ray)</t>
+Québec : 13 juillet 2021 (DVD et Blu-ray)
+France : 1er décembre 2021 (DVD et Blu-ray)</t>
         </is>
       </c>
     </row>
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rupert Friend : Jeff Vahn
@@ -640,10 +658,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2018, on annonce que Rupert Friend est engagé dans le film, avec William Brent Bell en tant que réalisateur sous le scénario signé Nick Amadeus et Josh Braun. William Brent Bell, Jordan Yale Levine, Jordan Beckerman, Russ Posternak, Jesse Korman,  Clay Pecorin and Russell Geyser, will sont producteurs avec leurs sociétés Yale Productions et RainMaker Films banners[3]. En novembre de la même année, Mamie Gummer, Madeline Brewer, Brian Cox et Violet McGraw ont été choisis[4].
-Au début de 2020, le film est en dernière étape de la post-production[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2018, on annonce que Rupert Friend est engagé dans le film, avec William Brent Bell en tant que réalisateur sous le scénario signé Nick Amadeus et Josh Braun. William Brent Bell, Jordan Yale Levine, Jordan Beckerman, Russ Posternak, Jesse Korman,  Clay Pecorin and Russell Geyser, will sont producteurs avec leurs sociétés Yale Productions et RainMaker Films banners. En novembre de la même année, Mamie Gummer, Madeline Brewer, Brian Cox et Violet McGraw ont été choisis.
+Au début de 2020, le film est en dernière étape de la post-production.
 </t>
         </is>
       </c>
@@ -674,10 +694,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sortie
-En mars 2021, Open Road Films et Briarcliff Entertainment ont acquis les droits de distribution du film, et les ont établi pour une sortie précisant le 23 avril 2021[6]. La date de sortie est repoussée au 30 avril 2021[7].
-Box-office
-Le film gagne 1,8 million de dollars après la diffusion dans 1 751 salles américaines pour la première semaine, et se place au quatrième rang du box-office américain[10] Il chute à 40 % dans la deuxième semaine avec 1,1 million de dollars, finissant au sixième rang[11].
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2021, Open Road Films et Briarcliff Entertainment ont acquis les droits de distribution du film, et les ont établi pour une sortie précisant le 23 avril 2021. La date de sortie est repoussée au 30 avril 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Separation_(film,_2021)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Separation_(film,_2021)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film gagne 1,8 million de dollars après la diffusion dans 1 751 salles américaines pour la première semaine, et se place au quatrième rang du box-office américain Il chute à 40 % dans la deuxième semaine avec 1,1 million de dollars, finissant au sixième rang.
 </t>
         </is>
       </c>
